--- a/Homework/week-4/crabs.xlsx
+++ b/Homework/week-4/crabs.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="crabs" sheetId="1" r:id="rId1"/>
     <sheet name="Blad1" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="16">
   <si>
     <t>sp</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t>stdevs</t>
+  </si>
+  <si>
+    <t>crabpiece</t>
+  </si>
+  <si>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -6958,8 +6965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7067,4 +7074,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>11.718000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>32.014000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>36.810000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13.349999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>